--- a/data15.xlsx
+++ b/data15.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis\Dataset\Unlabeled\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis\Sentiment_analysis_learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92A4FA0A-E632-4374-B34B-0AC0FC16CE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DD5DE0-1FCE-47D7-9092-8B0922606F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,9 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
-    <t>Name (click to view profile)</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -457,6 +454,9 @@
   </si>
   <si>
     <t>Label</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -805,9 +805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" activeCellId="3" sqref="A1:A1048576 B1:B1048576 D1:G1048576 I1:I1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -817,21 +815,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -839,10 +837,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -850,18 +848,18 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -869,10 +867,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -880,10 +878,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -891,10 +889,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -902,10 +900,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -913,10 +911,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -924,10 +922,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -935,10 +933,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -946,10 +944,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -957,10 +955,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -968,10 +966,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -979,10 +977,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -990,10 +988,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -1001,10 +999,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -1012,10 +1010,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -1023,10 +1021,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
         <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -1034,10 +1032,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -1045,26 +1043,26 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
         <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
         <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1072,10 +1070,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
         <v>48</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -1083,18 +1081,18 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
         <v>50</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
         <v>52</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -1102,10 +1100,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
         <v>54</v>
-      </c>
-      <c r="B28" t="s">
-        <v>55</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -1113,18 +1111,18 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
         <v>56</v>
-      </c>
-      <c r="B29" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
         <v>58</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -1132,10 +1130,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s">
         <v>60</v>
-      </c>
-      <c r="B31" t="s">
-        <v>61</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1143,10 +1141,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" t="s">
         <v>62</v>
-      </c>
-      <c r="B32" t="s">
-        <v>63</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -1154,10 +1152,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
         <v>64</v>
-      </c>
-      <c r="B33" t="s">
-        <v>65</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1165,10 +1163,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" t="s">
         <v>66</v>
-      </c>
-      <c r="B34" t="s">
-        <v>67</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -1176,10 +1174,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" t="s">
         <v>68</v>
-      </c>
-      <c r="B35" t="s">
-        <v>69</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -1187,10 +1185,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
         <v>70</v>
-      </c>
-      <c r="B36" t="s">
-        <v>71</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -1198,10 +1196,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="s">
         <v>72</v>
-      </c>
-      <c r="B37" t="s">
-        <v>73</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -1209,10 +1207,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" t="s">
         <v>74</v>
-      </c>
-      <c r="B38" t="s">
-        <v>75</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1220,10 +1218,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" t="s">
         <v>76</v>
-      </c>
-      <c r="B39" t="s">
-        <v>77</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -1231,18 +1229,18 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
         <v>78</v>
-      </c>
-      <c r="B40" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" t="s">
         <v>80</v>
-      </c>
-      <c r="B41" t="s">
-        <v>81</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -1250,10 +1248,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
         <v>82</v>
-      </c>
-      <c r="B42" t="s">
-        <v>83</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -1261,18 +1259,18 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" t="s">
         <v>84</v>
-      </c>
-      <c r="B43" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" t="s">
         <v>86</v>
-      </c>
-      <c r="B44" t="s">
-        <v>87</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -1280,10 +1278,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" t="s">
         <v>88</v>
-      </c>
-      <c r="B45" t="s">
-        <v>89</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -1291,10 +1289,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" t="s">
         <v>90</v>
-      </c>
-      <c r="B46" t="s">
-        <v>91</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -1302,10 +1300,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" t="s">
         <v>92</v>
-      </c>
-      <c r="B47" t="s">
-        <v>93</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -1313,10 +1311,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" t="s">
         <v>94</v>
-      </c>
-      <c r="B48" t="s">
-        <v>95</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1324,10 +1322,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" t="s">
         <v>96</v>
-      </c>
-      <c r="B49" t="s">
-        <v>97</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1335,10 +1333,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" t="s">
         <v>98</v>
-      </c>
-      <c r="B50" t="s">
-        <v>99</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -1346,18 +1344,18 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" t="s">
         <v>100</v>
-      </c>
-      <c r="B51" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" t="s">
         <v>102</v>
-      </c>
-      <c r="B52" t="s">
-        <v>103</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -1365,10 +1363,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" t="s">
         <v>104</v>
-      </c>
-      <c r="B53" t="s">
-        <v>105</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -1376,18 +1374,18 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" t="s">
         <v>106</v>
-      </c>
-      <c r="B54" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" t="s">
         <v>108</v>
-      </c>
-      <c r="B55" t="s">
-        <v>109</v>
       </c>
       <c r="C55">
         <v>6</v>
@@ -1395,26 +1393,26 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" t="s">
         <v>110</v>
-      </c>
-      <c r="B56" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" t="s">
         <v>112</v>
-      </c>
-      <c r="B57" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" t="s">
         <v>114</v>
-      </c>
-      <c r="B58" t="s">
-        <v>115</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -1422,18 +1420,18 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" t="s">
         <v>116</v>
-      </c>
-      <c r="B59" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" t="s">
         <v>118</v>
-      </c>
-      <c r="B60" t="s">
-        <v>119</v>
       </c>
       <c r="C60">
         <v>6</v>
@@ -1441,18 +1439,18 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" t="s">
         <v>120</v>
-      </c>
-      <c r="B61" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" t="s">
         <v>122</v>
-      </c>
-      <c r="B62" t="s">
-        <v>123</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -1460,10 +1458,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" t="s">
         <v>124</v>
-      </c>
-      <c r="B63" t="s">
-        <v>125</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -1471,18 +1469,18 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" t="s">
         <v>126</v>
-      </c>
-      <c r="B64" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" t="s">
         <v>128</v>
-      </c>
-      <c r="B65" t="s">
-        <v>129</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -1490,10 +1488,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" t="s">
         <v>130</v>
-      </c>
-      <c r="B66" t="s">
-        <v>131</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -1501,26 +1499,26 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" t="s">
         <v>132</v>
-      </c>
-      <c r="B67" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" t="s">
         <v>134</v>
-      </c>
-      <c r="B68" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" t="s">
         <v>136</v>
-      </c>
-      <c r="B69" t="s">
-        <v>137</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -1528,10 +1526,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" t="s">
         <v>138</v>
-      </c>
-      <c r="B70" t="s">
-        <v>139</v>
       </c>
       <c r="C70">
         <v>6</v>
